--- a/public/template/mlgl0003.xlsx
+++ b/public/template/mlgl0003.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="21929"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="22527"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{64E996FA-BF5C-4757-8E45-62AA7E113630}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AB767F99-0116-4482-8CF6-7FA7F6F181AF}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2955" yWindow="2955" windowWidth="21600" windowHeight="11400" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3705" yWindow="3705" windowWidth="21600" windowHeight="11400" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="105" uniqueCount="54">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="31">
   <si>
     <t>序号</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -68,43 +68,6 @@
     <t>名称3</t>
   </si>
   <si>
-    <t>名称4</t>
-  </si>
-  <si>
-    <t>名称5</t>
-  </si>
-  <si>
-    <t>名称6</t>
-  </si>
-  <si>
-    <t>名称7</t>
-  </si>
-  <si>
-    <t>名称8</t>
-  </si>
-  <si>
-    <t>名称9</t>
-  </si>
-  <si>
-    <t>易耗品1</t>
-  </si>
-  <si>
-    <t>易耗品1</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>易耗品2</t>
-  </si>
-  <si>
-    <t>易耗品3</t>
-  </si>
-  <si>
-    <t>易耗品4</t>
-  </si>
-  <si>
-    <t>易耗品5</t>
-  </si>
-  <si>
     <t>易耗品6</t>
   </si>
   <si>
@@ -128,39 +91,6 @@
   </si>
   <si>
     <t>描述3</t>
-  </si>
-  <si>
-    <t>描述4</t>
-  </si>
-  <si>
-    <t>描述5</t>
-  </si>
-  <si>
-    <t>描述6</t>
-  </si>
-  <si>
-    <t>描述7</t>
-  </si>
-  <si>
-    <t>描述8</t>
-  </si>
-  <si>
-    <t>描述9</t>
-  </si>
-  <si>
-    <t>描述10</t>
-  </si>
-  <si>
-    <t>描述11</t>
-  </si>
-  <si>
-    <t>描述12</t>
-  </si>
-  <si>
-    <t>描述13</t>
-  </si>
-  <si>
-    <t>描述14</t>
   </si>
   <si>
     <t>描述15</t>
@@ -627,10 +557,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:I20"/>
+  <dimension ref="A1:I9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G12" sqref="G12"/>
+      <selection activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -662,7 +592,7 @@
         <v>3</v>
       </c>
       <c r="F1" s="4" t="s">
-        <v>53</v>
+        <v>30</v>
       </c>
       <c r="G1" s="4" t="s">
         <v>4</v>
@@ -671,7 +601,7 @@
         <v>6</v>
       </c>
       <c r="I1" s="4" t="s">
-        <v>51</v>
+        <v>28</v>
       </c>
     </row>
     <row r="2" spans="1:9" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
@@ -694,13 +624,13 @@
         <v>100</v>
       </c>
       <c r="G2" t="s">
-        <v>49</v>
+        <v>26</v>
       </c>
       <c r="H2" t="s">
-        <v>30</v>
+        <v>18</v>
       </c>
       <c r="I2" t="s">
-        <v>52</v>
+        <v>29</v>
       </c>
     </row>
     <row r="3" spans="1:9" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
@@ -723,10 +653,10 @@
         <v>101</v>
       </c>
       <c r="G3" t="s">
-        <v>50</v>
+        <v>27</v>
       </c>
       <c r="H3" t="s">
-        <v>31</v>
+        <v>19</v>
       </c>
       <c r="I3">
         <v>123456</v>
@@ -752,426 +682,140 @@
         <v>102</v>
       </c>
       <c r="G4" t="s">
-        <v>50</v>
+        <v>27</v>
       </c>
       <c r="H4" t="s">
-        <v>32</v>
+        <v>20</v>
       </c>
     </row>
     <row r="5" spans="1:9" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A5">
         <v>4</v>
       </c>
-      <c r="B5" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C5" s="2" t="s">
+      <c r="B5" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C5" s="3" t="s">
         <v>13</v>
       </c>
       <c r="D5" t="s">
         <v>13</v>
       </c>
       <c r="E5">
-        <v>18</v>
+        <v>29</v>
       </c>
       <c r="F5">
-        <v>103</v>
+        <v>114</v>
       </c>
       <c r="G5" t="s">
-        <v>50</v>
+        <v>27</v>
       </c>
       <c r="H5" t="s">
-        <v>33</v>
+        <v>21</v>
       </c>
     </row>
     <row r="6" spans="1:9" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A6">
         <v>5</v>
       </c>
-      <c r="B6" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C6" s="2" t="s">
+      <c r="B6" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C6" s="3" t="s">
         <v>14</v>
       </c>
       <c r="D6" t="s">
         <v>14</v>
       </c>
       <c r="E6">
-        <v>19</v>
+        <v>30</v>
       </c>
       <c r="F6">
-        <v>104</v>
+        <v>115</v>
       </c>
       <c r="G6" t="s">
-        <v>50</v>
+        <v>27</v>
       </c>
       <c r="H6" t="s">
-        <v>34</v>
+        <v>22</v>
       </c>
     </row>
     <row r="7" spans="1:9" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A7">
         <v>6</v>
       </c>
-      <c r="B7" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C7" s="2" t="s">
+      <c r="B7" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C7" s="3" t="s">
         <v>15</v>
       </c>
       <c r="D7" t="s">
         <v>15</v>
       </c>
       <c r="E7">
-        <v>20</v>
+        <v>31</v>
       </c>
       <c r="F7">
-        <v>105</v>
+        <v>116</v>
       </c>
       <c r="G7" t="s">
-        <v>50</v>
+        <v>27</v>
       </c>
       <c r="H7" t="s">
-        <v>35</v>
+        <v>23</v>
       </c>
     </row>
     <row r="8" spans="1:9" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A8">
         <v>7</v>
       </c>
-      <c r="B8" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C8" s="2" t="s">
+      <c r="B8" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C8" s="3" t="s">
         <v>16</v>
       </c>
       <c r="D8" t="s">
         <v>16</v>
       </c>
       <c r="E8">
-        <v>21</v>
+        <v>32</v>
       </c>
       <c r="F8">
-        <v>106</v>
+        <v>117</v>
       </c>
       <c r="G8" t="s">
-        <v>50</v>
+        <v>27</v>
       </c>
       <c r="H8" t="s">
-        <v>36</v>
+        <v>24</v>
       </c>
     </row>
     <row r="9" spans="1:9" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A9">
         <v>8</v>
       </c>
-      <c r="B9" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C9" s="2" t="s">
+      <c r="B9" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C9" s="3" t="s">
         <v>17</v>
       </c>
       <c r="D9" t="s">
         <v>17</v>
       </c>
       <c r="E9">
-        <v>22</v>
+        <v>33</v>
       </c>
       <c r="F9">
-        <v>107</v>
+        <v>118</v>
       </c>
       <c r="G9" t="s">
-        <v>50</v>
+        <v>27</v>
       </c>
       <c r="H9" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A10">
-        <v>9</v>
-      </c>
-      <c r="B10" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C10" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="D10" t="s">
-        <v>18</v>
-      </c>
-      <c r="E10">
-        <v>23</v>
-      </c>
-      <c r="F10">
-        <v>108</v>
-      </c>
-      <c r="G10" t="s">
-        <v>50</v>
-      </c>
-      <c r="H10" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="11" spans="1:9" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A11">
-        <v>10</v>
-      </c>
-      <c r="B11" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="C11" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="D11" t="s">
-        <v>19</v>
-      </c>
-      <c r="E11">
-        <v>24</v>
-      </c>
-      <c r="F11">
-        <v>109</v>
-      </c>
-      <c r="G11" t="s">
-        <v>50</v>
-      </c>
-      <c r="H11" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="12" spans="1:9" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A12">
-        <v>11</v>
-      </c>
-      <c r="B12" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="C12" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="D12" t="s">
-        <v>21</v>
-      </c>
-      <c r="E12">
         <v>25</v>
-      </c>
-      <c r="F12">
-        <v>110</v>
-      </c>
-      <c r="G12" t="s">
-        <v>50</v>
-      </c>
-      <c r="H12" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="13" spans="1:9" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A13">
-        <v>12</v>
-      </c>
-      <c r="B13" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="C13" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="D13" t="s">
-        <v>22</v>
-      </c>
-      <c r="E13">
-        <v>26</v>
-      </c>
-      <c r="F13">
-        <v>111</v>
-      </c>
-      <c r="G13" t="s">
-        <v>50</v>
-      </c>
-      <c r="H13" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="14" spans="1:9" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A14">
-        <v>13</v>
-      </c>
-      <c r="B14" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="C14" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="D14" t="s">
-        <v>23</v>
-      </c>
-      <c r="E14">
-        <v>27</v>
-      </c>
-      <c r="F14">
-        <v>112</v>
-      </c>
-      <c r="G14" t="s">
-        <v>50</v>
-      </c>
-      <c r="H14" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="15" spans="1:9" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A15">
-        <v>14</v>
-      </c>
-      <c r="B15" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="C15" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="D15" t="s">
-        <v>24</v>
-      </c>
-      <c r="E15">
-        <v>28</v>
-      </c>
-      <c r="F15">
-        <v>113</v>
-      </c>
-      <c r="G15" t="s">
-        <v>50</v>
-      </c>
-      <c r="H15" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="16" spans="1:9" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A16">
-        <v>15</v>
-      </c>
-      <c r="B16" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="C16" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="D16" t="s">
-        <v>25</v>
-      </c>
-      <c r="E16">
-        <v>29</v>
-      </c>
-      <c r="F16">
-        <v>114</v>
-      </c>
-      <c r="G16" t="s">
-        <v>50</v>
-      </c>
-      <c r="H16" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="17" spans="1:8" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A17">
-        <v>16</v>
-      </c>
-      <c r="B17" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="C17" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="D17" t="s">
-        <v>26</v>
-      </c>
-      <c r="E17">
-        <v>30</v>
-      </c>
-      <c r="F17">
-        <v>115</v>
-      </c>
-      <c r="G17" t="s">
-        <v>50</v>
-      </c>
-      <c r="H17" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="18" spans="1:8" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A18">
-        <v>17</v>
-      </c>
-      <c r="B18" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="C18" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="D18" t="s">
-        <v>27</v>
-      </c>
-      <c r="E18">
-        <v>31</v>
-      </c>
-      <c r="F18">
-        <v>116</v>
-      </c>
-      <c r="G18" t="s">
-        <v>50</v>
-      </c>
-      <c r="H18" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="19" spans="1:8" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A19">
-        <v>18</v>
-      </c>
-      <c r="B19" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="C19" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="D19" t="s">
-        <v>28</v>
-      </c>
-      <c r="E19">
-        <v>32</v>
-      </c>
-      <c r="F19">
-        <v>117</v>
-      </c>
-      <c r="G19" t="s">
-        <v>50</v>
-      </c>
-      <c r="H19" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="20" spans="1:8" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A20">
-        <v>19</v>
-      </c>
-      <c r="B20" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="C20" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="D20" t="s">
-        <v>29</v>
-      </c>
-      <c r="E20">
-        <v>33</v>
-      </c>
-      <c r="F20">
-        <v>118</v>
-      </c>
-      <c r="G20" t="s">
-        <v>50</v>
-      </c>
-      <c r="H20" t="s">
-        <v>48</v>
       </c>
     </row>
   </sheetData>
